--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 12-13</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,12 +611,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -602,8 +658,16 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -3739,7 +3739,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Santa Fe, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3812,7 +3812,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Red Camry</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,14 +1427,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>work w/ Jerry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1443,12 +1439,13 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>work w/ Ashley</t>
+          <t>Driver,
+Santa Fe</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1459,14 +1456,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>work w/ Ashley</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1512,10 +1505,16 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1524,13 +1523,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1541,10 +1539,15 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1588,14 +1591,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>Driver,
-Optima,
-Supv Rx</t>
+Santa Fe,
+Trainer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1606,14 +1609,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1622,13 +1621,13 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1662,14 +1661,13 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe,
-Trainer</t>
+Red Van</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1680,10 +1678,15 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1692,15 +1695,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -1724,15 +1722,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1741,13 +1734,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1758,10 +1750,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1789,10 +1785,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1856,14 +1856,10 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1872,13 +1868,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1889,13 +1884,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1929,10 +1923,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1941,12 +1939,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+shadow Qiana</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1957,7 +1956,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1996,14 +1995,10 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -2012,13 +2007,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>@ Store,
-shadow Qiana</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2029,12 +2024,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2061,16 +2057,8 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2080,13 +2068,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2097,13 +2085,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+shadow Michael</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2141,13 +2129,13 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2158,13 +2146,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store,
-shadow Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2192,39 +2179,31 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>16)</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>@ Store,
 Trainer</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2246,7 +2225,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2262,13 +2241,13 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2315,31 +2294,22 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">ASCENSION IP CSMO COLUMBIA ST MARY'S HOSP OZAUKEE CAMPUS </t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2348,12 +2318,13 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>work w/ Justin</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2379,7 +2350,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASCENSION IP CSMO COLUMBIA ST MARY'S HOSP OZAUKEE CAMPUS </t>
+          <t>13111 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2387,7 +2358,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2403,13 +2374,12 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>work w/ Justin</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2427,7 +2397,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>13111 N PORT WASHINGTON RD</t>
+          <t>https://goo.gl/maps/h68MdySxd6QHKPLu5</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2435,13 +2405,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>METRO #371 +RX, MILWAUKEE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
@@ -2451,12 +2425,12 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>work w/ Justin</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2472,17 +2446,13 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/h68MdySxd6QHKPLu5</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>METRO #371 +RX, MILWAUKEE</t>
+          <t>1123 N VAN BUREN STREET</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2490,7 +2460,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2502,7 +2472,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2526,14 +2496,26 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Blck Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1123 N VAN BUREN STREET</t>
+          <t>https://goo.gl/maps/P9qm8u7dxgH2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2541,7 +2523,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2553,12 +2535,13 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2579,52 +2562,31 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Blck Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/P9qm8u7dxgH2</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #087, HARTFORD</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2643,24 +2605,36 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #087, HARTFORD</t>
+          <t>1566 E SUMNER ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2686,42 +2660,46 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>1566 E SUMNER ST</t>
+          <t>https://goo.gl/maps/aDpuMeDEHSz</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>*THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2739,46 +2717,30 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/aDpuMeDEHSz</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>*THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+          <t>11:30 AM REQUIRED MEET AT TIPP ST PARK AND RIDE</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2804,24 +2766,38 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>11:30 AM REQUIRED MEET AT TIPP ST PARK AND RIDE</t>
+          <t>*ADDRESS TO THE MEET:
+W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2842,43 +2818,45 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van, Equip</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>*ADDRESS TO THE MEET:
-W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
+          <t>12:00 PM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2901,43 +2879,47 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>12:00 PM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2960,47 +2942,43 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3023,43 +3001,39 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>METRO #434 +RX, COTTAGE GROVE</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
+          <t>N93 W14575 WHITTAKER WAY</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3082,31 +3056,31 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>METRO #434 +RX, COTTAGE GROVE</t>
+          <t>6010 COTTAGE GROVE RD</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3114,7 +3088,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>N93 W14575 WHITTAKER WAY</t>
+          <t>https://goo.gl/maps/CLqauUgd2u12</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3133,31 +3107,35 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6010 COTTAGE GROVE RD</t>
+          <t>https://goo.gl/maps/c4ML69v6ZS32</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3165,7 +3143,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CLqauUgd2u12</t>
+          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3194,45 +3172,29 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/c4ML69v6ZS32</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
+          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3261,21 +3223,37 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3284,7 +3262,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
+          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3302,44 +3280,32 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3357,15 +3323,20 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3374,7 +3345,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3382,7 +3353,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3404,18 +3375,17 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3426,7 +3396,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3434,7 +3404,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
+          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3456,17 +3426,18 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3477,7 +3448,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3485,7 +3456,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
+          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3507,18 +3478,17 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3529,7 +3499,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
+          <t>810 PARK AVE</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3537,7 +3507,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
+          <t>Need to go up a flight of stairs for this site</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3559,12 +3529,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3580,7 +3550,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>810 PARK AVE</t>
+          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3588,7 +3558,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Need to go up a flight of stairs for this site</t>
+          <t>GIVE THEM COMP FILES INSTEAD OF PRINTOUTS AT END OF STORE - ALL 3 EXPORT FILES</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3610,12 +3580,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3631,17 +3601,13 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
+          <t>PARTIAL RESET(ONE SIDE OF FROZEN)-REMAPPED</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>GIVE THEM COMP FILES INSTEAD OF PRINTOUTS AT END OF STORE - ALL 3 EXPORT FILES</t>
-        </is>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3661,17 +3627,18 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3680,16 +3647,24 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>PARTIAL RESET(ONE SIDE OF FROZEN)-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3704,18 +3679,17 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3723,23 +3697,35 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Red Camry</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3768,12 +3754,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3788,35 +3774,31 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Red Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3843,12 +3825,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3863,12 +3845,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3879,15 +3861,20 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Altima,
+Supv 1119</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3915,12 +3902,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3935,12 +3922,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3951,20 +3938,15 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>Altima,
-Supv 1119</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3991,12 +3973,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4011,12 +3993,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4027,12 +4009,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4062,12 +4044,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4082,12 +4064,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4098,12 +4080,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4131,21 +4113,9 @@
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4153,12 +4123,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4169,12 +4139,12 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4212,12 +4182,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4228,15 +4198,19 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -4271,12 +4245,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4285,21 +4259,9 @@
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4320,21 +4282,9 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4364,7 +4314,11 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -4391,13 +4345,17 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4428,7 +4386,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4436,7 +4394,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4465,17 +4423,13 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
+          <t>110 SOUTH 17TH AVE</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4510,7 +4464,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>110 SOUTH 17TH AVE</t>
+          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4543,11 +4497,7 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
-        </is>
-      </c>
+      <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
@@ -4573,9 +4523,21 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4610,17 +4572,17 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -4649,12 +4611,12 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -4688,12 +4650,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -4727,12 +4689,12 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -4766,12 +4728,12 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -4805,17 +4767,17 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
         </is>
       </c>
       <c r="X81" t="inlineStr"/>
@@ -4844,17 +4806,17 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -4883,12 +4845,12 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -4922,12 +4884,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -4961,12 +4923,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -5000,12 +4962,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5039,60 +5001,21 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>meet Madison @ Point Target</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -3998,12 +3998,12 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4282,9 +4282,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4345,11 +4357,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4386,7 +4394,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4423,7 +4431,11 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -3725,7 +3725,8 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Red Camry</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3871,8 +3872,9 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Altima,
-Supv 1119</t>
+          <t>Driver,
+Altima,
+Supv 1143</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -4149,7 +4149,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store, until 4:30</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -2225,7 +2225,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2446,7 +2446,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>**BRING BACKUP DC5S**</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2496,21 +2500,9 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Blck Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2562,15 +2554,19 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Blck Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2605,12 +2601,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2660,12 +2656,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2717,8 +2713,16 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -2818,11 +2822,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2879,7 +2879,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2919,7 +2919,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3001,7 +3001,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>METRO #434 +RX, COTTAGE GROVE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3056,7 +3056,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6010 COTTAGE GROVE RD</t>
+          <t>METRO #434 +RX, COTTAGE GROVE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3107,7 +3107,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/c4ML69v6ZS32</t>
+          <t>6010 COTTAGE GROVE RD</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3172,7 +3172,11 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/c4ML69v6ZS32</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3223,21 +3227,9 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3280,15 +3272,19 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3323,20 +3319,15 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3375,17 +3366,18 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3426,18 +3418,17 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3478,17 +3469,18 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3529,12 +3521,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3580,12 +3572,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3627,18 +3619,17 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3679,17 +3670,18 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3755,12 +3747,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3826,12 +3818,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3904,12 +3896,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3975,12 +3967,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4046,12 +4038,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4115,9 +4107,21 @@
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2744,7 +2744,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>11:30 AM REQUIRED MEET AT TIPP ST PARK AND RIDE</t>
+          <t>11:15 AM REQUIRED MEET AT TIPP ST PARK AND RIDE</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -3301,7 +3301,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>9:30 AM START FOR DJ / MONICA</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3344,7 +3344,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
+          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
+          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3499,7 +3499,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Need to go up a flight of stairs for this site</t>
+          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>GIVE THEM COMP FILES INSTEAD OF PRINTOUTS AT END OF STORE - ALL 3 EXPORT FILES</t>
+          <t>Need to go up a flight of stairs for this site</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3599,7 +3599,11 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>GIVE THEM COMP FILES INSTEAD OF PRINTOUTS AT END OF STORE - ALL 3 EXPORT FILES</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3641,21 +3645,9 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3707,18 +3699,17 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3783,15 +3774,20 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3854,21 +3850,15 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima,
-Supv 1143</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3932,15 +3922,21 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>w/ Monica
+Altima,
+Supv 1143</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -4003,12 +3999,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4074,12 +4070,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4145,17 +4141,17 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>@ Store, until 4:30</t>
+          <t>Early w/ DJ</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -4208,17 +4204,17 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, until 4:30</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4269,9 +4265,21 @@
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4336,11 +4344,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -4373,7 +4377,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4412,7 +4416,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4451,7 +4455,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>110 SOUTH 17TH AVE</t>
+          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4486,7 +4490,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
+          <t>110 SOUTH 17TH AVE</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4519,7 +4523,11 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
@@ -4545,21 +4553,9 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4594,17 +4590,17 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -4633,12 +4629,12 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -4672,12 +4668,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -4711,12 +4707,12 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -4750,12 +4746,12 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -4789,17 +4785,17 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X81" t="inlineStr"/>
@@ -4828,17 +4824,17 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -4867,12 +4863,12 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -4906,12 +4902,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -4945,12 +4941,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -4984,12 +4980,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5023,21 +5019,60 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>meet Madison @ Point Target</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -1956,12 +1956,13 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2024,13 +2025,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+shadow Michael</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2085,13 +2086,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-shadow Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2146,12 +2146,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2197,13 +2198,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2234,22 +2235,9 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2364,7 +2352,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -2413,7 +2405,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2464,7 +2456,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2515,7 +2507,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #087, HARTFORD</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2575,7 +2567,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #087, HARTFORD</t>
+          <t>1566 E SUMNER ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2630,7 +2622,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1566 E SUMNER ST</t>
+          <t>https://goo.gl/maps/aDpuMeDEHSz</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2683,11 +2675,7 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/aDpuMeDEHSz</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2737,9 +2725,22 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
@@ -2782,18 +2783,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van, Equip</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2839,17 +2839,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2902,17 +2902,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2961,19 +2961,15 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
@@ -3020,12 +3016,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3075,12 +3071,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3128,16 +3124,8 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3248,7 +3236,11 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3293,7 +3285,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3336,7 +3328,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3388,7 +3380,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3439,7 +3431,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
+          <t>810 PARK AVE</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3491,7 +3483,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>810 PARK AVE</t>
+          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3542,7 +3534,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
+          <t>PARTIAL RESET(ONE SIDE OF FROZEN)-REMAPPED</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3591,11 +3583,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>PARTIAL RESET(ONE SIDE OF FROZEN)-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3641,9 +3629,21 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3683,17 +3683,17 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3758,12 +3758,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3834,12 +3834,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3906,17 +3906,17 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -3983,17 +3983,17 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>@ Store, Until 10</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -4054,12 +4054,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4125,12 +4125,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4188,12 +4188,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4251,12 +4251,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4300,21 +4300,9 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4371,7 +4359,11 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4408,7 +4400,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4445,11 +4437,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2366,14 +2366,10 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>work w/ Justin</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2417,12 +2413,12 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Justin</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -3009,7 +3005,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3064,10 +3060,14 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3115,14 +3115,10 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3174,10 +3170,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3219,21 +3219,9 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3246,7 +3234,8 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
+          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.
+**BRING BACKUP DC5S**</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3293,7 +3282,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>9:30 AM START FOR DJ / MONICA</t>
+          <t>9:30 AM START FOR DJ / LEYNA</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3646,7 +3635,11 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>DJ / LEYNA - MEET AT 9:15 AM AT TIPP ST PARK N RIDE</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3697,21 +3690,9 @@
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3774,18 +3755,17 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3850,15 +3830,20 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3922,21 +3907,15 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>w/ Monica
-Altima,
-Supv 1143</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3999,15 +3978,21 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>w/ Leyna
+Altima,
+Supv 1143</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -4070,12 +4055,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4141,17 +4126,17 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Early w/ DJ</t>
+          <t>w/ DJ</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -4204,7 +4189,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4267,12 +4252,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4304,9 +4289,21 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4367,11 +4364,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -4408,7 +4401,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4443,7 +4436,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4478,7 +4471,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>110 SOUTH 17TH AVE</t>
+          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4513,7 +4506,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
+          <t>110 SOUTH 17TH AVE</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4542,7 +4535,11 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -4576,21 +4573,9 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -4617,17 +4602,17 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4656,12 +4641,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -4695,12 +4680,12 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -4734,12 +4719,12 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -4773,12 +4758,12 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -4812,17 +4797,17 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -4851,17 +4836,17 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
@@ -4890,12 +4875,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -4929,12 +4914,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -4968,12 +4953,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5007,12 +4992,12 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -5046,21 +5031,60 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>meet Madison @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>meet Madison @ Point Target</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -4060,10 +4060,14 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>w/ DJ</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4131,12 +4135,12 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>w/ DJ</t>
+          <t>@ Store, until 4:30</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -4194,12 +4198,12 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>@ Store, until 4:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4257,7 +4261,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4289,21 +4293,9 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4364,7 +4356,11 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -4401,7 +4397,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4436,7 +4432,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4471,7 +4467,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>FESTIVAL #2692, WAUSAU - LIFO</t>
+          <t>110 SOUTH 17TH AVE</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4506,7 +4502,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>110 SOUTH 17TH AVE</t>
+          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4535,11 +4531,7 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/vmM1kpEXwDbg4ira7</t>
-        </is>
-      </c>
+      <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -4573,9 +4565,21 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -4602,17 +4606,17 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4641,12 +4645,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -4680,12 +4684,12 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -4719,12 +4723,12 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -4758,12 +4762,12 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -4797,17 +4801,17 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -4836,17 +4840,17 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>Driver, (pick up Dan, Terri *&amp; Trevor)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
@@ -4875,12 +4879,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -4914,12 +4918,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -4953,12 +4957,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -4992,12 +4996,12 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -5031,60 +5035,21 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>meet Madison @ Point Target</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -5001,55 +5001,16 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Madison @ Point Target</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>meet Madison @ Point Target</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
